--- a/ASAN.xlsx
+++ b/ASAN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11213"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelsjoeberg/Dropbox/_PROJECTS/_Investing/stocks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelsjoeberg/Dropbox/_PROJECTS/_investing/stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2EB7AF8-09D9-4249-AA4D-27522F1EE11D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E20554B-1461-804F-877F-8AFD98711EDD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2140" yWindow="460" windowWidth="20160" windowHeight="20320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="20320" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -689,14 +689,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>204354</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>204354</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
@@ -713,8 +713,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19926300" y="152400"/>
-          <a:ext cx="0" cy="9105900"/>
+          <a:off x="20870718" y="152400"/>
+          <a:ext cx="0" cy="8265391"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1010,7 +1010,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="H31" sqref="H31"/>
+      <selection pane="bottomRight" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1032,14 +1032,16 @@
         <v>44</v>
       </c>
       <c r="C2" s="4">
-        <v>30</v>
-      </c>
-      <c r="D2" s="73"/>
+        <v>28.55</v>
+      </c>
+      <c r="D2" s="73">
+        <v>44201</v>
+      </c>
       <c r="E2" s="6" t="s">
         <v>29</v>
       </c>
       <c r="F2" s="7">
-        <v>-0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="I2" s="16"/>
       <c r="L2" s="2"/>
@@ -1052,11 +1054,11 @@
         <v>17</v>
       </c>
       <c r="C3" s="8">
-        <f>Reports!W22</f>
-        <v>76.381</v>
+        <f>Reports!X22</f>
+        <v>113.264</v>
       </c>
       <c r="D3" s="74" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>30</v>
@@ -1078,7 +1080,7 @@
       </c>
       <c r="C4" s="10">
         <f>C2*C3</f>
-        <v>2291.4299999999998</v>
+        <v>3233.6871999999998</v>
       </c>
       <c r="D4" s="74"/>
       <c r="E4" s="6" t="s">
@@ -1101,18 +1103,18 @@
         <v>26</v>
       </c>
       <c r="C5" s="8">
-        <f>Reports!W34</f>
-        <v>123</v>
+        <f>Reports!X34</f>
+        <v>70</v>
       </c>
       <c r="D5" s="74" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F5" s="11">
         <f>NPV(F4,G26:GR26)</f>
-        <v>4036.9163861664861</v>
+        <v>4119.4107587336866</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>78</v>
@@ -1128,7 +1130,7 @@
       </c>
       <c r="C6" s="10">
         <f>C4-C5</f>
-        <v>2168.4299999999998</v>
+        <v>3163.6871999999998</v>
       </c>
       <c r="D6" s="74"/>
       <c r="E6" s="12" t="s">
@@ -1136,7 +1138,7 @@
       </c>
       <c r="F6" s="13">
         <f>F5+C5</f>
-        <v>4159.9163861664856</v>
+        <v>4189.4107587336866</v>
       </c>
       <c r="I6" s="20"/>
     </row>
@@ -1149,7 +1151,7 @@
       </c>
       <c r="C7" s="47">
         <f>C6/C3</f>
-        <v>28.389651876775634</v>
+        <v>27.931974855205539</v>
       </c>
       <c r="D7" s="74"/>
       <c r="E7" s="14" t="s">
@@ -1157,11 +1159,11 @@
       </c>
       <c r="F7" s="43">
         <f>F6/C3</f>
-        <v>54.462711749865619</v>
+        <v>36.988017010998085</v>
       </c>
       <c r="G7" s="20">
         <f>F7/C2-1</f>
-        <v>0.81542372499552074</v>
+        <v>0.29555225957961762</v>
       </c>
     </row>
     <row r="8" spans="1:117" x14ac:dyDescent="0.15">
@@ -1878,7 +1880,7 @@
         <v>227.952</v>
       </c>
       <c r="H15" s="50">
-        <f t="shared" ref="H15:K15" si="2">SUM(H10:H10)</f>
+        <f t="shared" ref="H15:J15" si="2">SUM(H10:H10)</f>
         <v>341.928</v>
       </c>
       <c r="I15" s="50">
@@ -1898,7 +1900,7 @@
         <v>1032.0754751999998</v>
       </c>
       <c r="M15" s="50">
-        <f t="shared" ref="L15:U15" si="3">L15*1.1</f>
+        <f t="shared" ref="M15:U15" si="3">L15*1.1</f>
         <v>1135.28302272</v>
       </c>
       <c r="N15" s="50">
@@ -3279,35 +3281,35 @@
       </c>
       <c r="N23" s="24">
         <f t="shared" si="20"/>
-        <v>-5.9833183108662205</v>
+        <v>-6.1477967231552171</v>
       </c>
       <c r="O23" s="24">
         <f t="shared" si="20"/>
-        <v>-3.5032822609334966</v>
+        <v>-4.0425622137213146</v>
       </c>
       <c r="P23" s="24">
         <f t="shared" si="20"/>
-        <v>0.49934022321439897</v>
+        <v>-0.64950086139299634</v>
       </c>
       <c r="Q23" s="24">
         <f t="shared" si="20"/>
-        <v>6.1780391321513957</v>
+        <v>4.1578629127651254</v>
       </c>
       <c r="R23" s="24">
         <f t="shared" si="20"/>
-        <v>12.949750872991586</v>
+        <v>10.519025450051295</v>
       </c>
       <c r="S23" s="24">
         <f t="shared" si="20"/>
-        <v>21.53691654078586</v>
+        <v>18.587804026333682</v>
       </c>
       <c r="T23" s="24">
         <f t="shared" si="20"/>
-        <v>32.121020369541846</v>
+        <v>28.53376717407976</v>
       </c>
       <c r="U23" s="24">
         <f t="shared" si="20"/>
-        <v>44.90210492077631</v>
+        <v>40.543808168145013</v>
       </c>
       <c r="V23" s="39"/>
       <c r="W23" s="39"/>
@@ -3451,35 +3453,35 @@
       </c>
       <c r="N24" s="24">
         <f t="shared" ref="N24" si="27">N22+N23</f>
-        <v>124.0018024966362</v>
+        <v>123.83732408434722</v>
       </c>
       <c r="O24" s="24">
         <f t="shared" ref="O24" si="28">O22+O23</f>
-        <v>200.13112420739478</v>
+        <v>199.59184425460697</v>
       </c>
       <c r="P24" s="24">
         <f t="shared" ref="P24:Q24" si="29">P22+P23</f>
-        <v>283.93494544684984</v>
+        <v>282.78610436224244</v>
       </c>
       <c r="Q24" s="24">
         <f t="shared" si="29"/>
-        <v>376.20620782445496</v>
+        <v>374.18603160506871</v>
       </c>
       <c r="R24" s="24">
         <f t="shared" ref="R24:U24" si="30">R22+R23</f>
-        <v>477.06475932190426</v>
+        <v>474.63403389896399</v>
       </c>
       <c r="S24" s="24">
         <f t="shared" si="30"/>
-        <v>588.00576826422127</v>
+        <v>585.05665574976899</v>
       </c>
       <c r="T24" s="24">
         <f t="shared" si="30"/>
-        <v>710.06025284635939</v>
+        <v>706.47299965089735</v>
       </c>
       <c r="U24" s="24">
         <f t="shared" si="30"/>
-        <v>844.36228631469294</v>
+        <v>840.00398956206163</v>
       </c>
       <c r="V24" s="39"/>
       <c r="W24" s="39"/>
@@ -3599,29 +3601,41 @@
       <c r="J25" s="24"/>
       <c r="K25" s="24"/>
       <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
+      <c r="M25" s="24">
+        <f>M24*0.15</f>
+        <v>8.2239206144498045</v>
+      </c>
+      <c r="N25" s="24">
+        <f t="shared" ref="N25:U25" si="31">N24*0.15</f>
+        <v>18.575598612652083</v>
+      </c>
+      <c r="O25" s="24">
+        <f t="shared" si="31"/>
+        <v>29.938776638191044</v>
+      </c>
+      <c r="P25" s="24">
+        <f t="shared" si="31"/>
+        <v>42.417915654336362</v>
+      </c>
       <c r="Q25" s="24">
-        <f t="shared" ref="Q25:U25" si="31">Q24*0.1</f>
-        <v>37.620620782445499</v>
+        <f t="shared" si="31"/>
+        <v>56.127904740760307</v>
       </c>
       <c r="R25" s="24">
         <f t="shared" si="31"/>
-        <v>47.706475932190429</v>
+        <v>71.195105084844599</v>
       </c>
       <c r="S25" s="24">
         <f t="shared" si="31"/>
-        <v>58.80057682642213</v>
+        <v>87.758498362465346</v>
       </c>
       <c r="T25" s="24">
         <f t="shared" si="31"/>
-        <v>71.006025284635939</v>
+        <v>105.97094994763459</v>
       </c>
       <c r="U25" s="24">
         <f t="shared" si="31"/>
-        <v>84.436228631469305</v>
+        <v>126.00059843430924</v>
       </c>
       <c r="V25" s="39"/>
       <c r="W25" s="39"/>
@@ -3761,755 +3775,755 @@
       </c>
       <c r="M26" s="25">
         <f t="shared" si="33"/>
-        <v>54.826137429665366</v>
+        <v>46.602216815215563</v>
       </c>
       <c r="N26" s="25">
         <f t="shared" si="33"/>
-        <v>124.0018024966362</v>
+        <v>105.26172547169513</v>
       </c>
       <c r="O26" s="25">
         <f t="shared" si="33"/>
-        <v>200.13112420739478</v>
+        <v>169.65306761641591</v>
       </c>
       <c r="P26" s="25">
         <f t="shared" si="33"/>
-        <v>283.93494544684984</v>
+        <v>240.36818870790609</v>
       </c>
       <c r="Q26" s="25">
         <f t="shared" ref="Q26:U26" si="34">Q24-Q25</f>
-        <v>338.58558704200948</v>
+        <v>318.05812686430841</v>
       </c>
       <c r="R26" s="25">
         <f t="shared" si="34"/>
-        <v>429.35828338971385</v>
+        <v>403.43892881411938</v>
       </c>
       <c r="S26" s="25">
         <f t="shared" si="34"/>
-        <v>529.20519143779916</v>
+        <v>497.29815738730366</v>
       </c>
       <c r="T26" s="25">
         <f t="shared" si="34"/>
-        <v>639.05422756172345</v>
+        <v>600.50204970326274</v>
       </c>
       <c r="U26" s="25">
         <f t="shared" si="34"/>
-        <v>759.92605768322369</v>
+        <v>714.00339112775237</v>
       </c>
       <c r="V26" s="25">
-        <f t="shared" ref="Q26:BY26" si="35">U26*($F$2+1)</f>
-        <v>744.72753652955919</v>
+        <f t="shared" ref="V26:BY26" si="35">U26*($F$2+1)</f>
+        <v>706.86335721647481</v>
       </c>
       <c r="W26" s="25">
         <f t="shared" si="35"/>
-        <v>729.83298579896802</v>
+        <v>699.79472364431001</v>
       </c>
       <c r="X26" s="25">
         <f t="shared" si="35"/>
-        <v>715.23632608298863</v>
+        <v>692.7967764078669</v>
       </c>
       <c r="Y26" s="25">
         <f t="shared" si="35"/>
-        <v>700.93159956132888</v>
+        <v>685.86880864378827</v>
       </c>
       <c r="Z26" s="25">
         <f t="shared" si="35"/>
-        <v>686.9129675701023</v>
+        <v>679.01012055735043</v>
       </c>
       <c r="AA26" s="25">
         <f t="shared" si="35"/>
-        <v>673.17470821870029</v>
+        <v>672.22001935177695</v>
       </c>
       <c r="AB26" s="25">
         <f t="shared" si="35"/>
-        <v>659.71121405432632</v>
+        <v>665.49781915825918</v>
       </c>
       <c r="AC26" s="25">
         <f t="shared" si="35"/>
-        <v>646.51698977323974</v>
+        <v>658.84284096667659</v>
       </c>
       <c r="AD26" s="25">
         <f t="shared" si="35"/>
-        <v>633.58664997777498</v>
+        <v>652.2544125570098</v>
       </c>
       <c r="AE26" s="25">
         <f t="shared" si="35"/>
-        <v>620.91491697821948</v>
+        <v>645.73186843143969</v>
       </c>
       <c r="AF26" s="25">
         <f t="shared" si="35"/>
-        <v>608.49661863865504</v>
+        <v>639.27454974712532</v>
       </c>
       <c r="AG26" s="25">
         <f t="shared" si="35"/>
-        <v>596.3266862658819</v>
+        <v>632.88180424965401</v>
       </c>
       <c r="AH26" s="25">
         <f t="shared" si="35"/>
-        <v>584.40015254056425</v>
+        <v>626.55298620715746</v>
       </c>
       <c r="AI26" s="25">
         <f t="shared" si="35"/>
-        <v>572.71214948975296</v>
+        <v>620.28745634508584</v>
       </c>
       <c r="AJ26" s="25">
         <f t="shared" si="35"/>
-        <v>561.25790649995793</v>
+        <v>614.08458178163494</v>
       </c>
       <c r="AK26" s="25">
         <f t="shared" si="35"/>
-        <v>550.03274836995877</v>
+        <v>607.94373596381854</v>
       </c>
       <c r="AL26" s="25">
         <f t="shared" si="35"/>
-        <v>539.03209340255955</v>
+        <v>601.86429860418036</v>
       </c>
       <c r="AM26" s="25">
         <f t="shared" si="35"/>
-        <v>528.25145153450831</v>
+        <v>595.84565561813861</v>
       </c>
       <c r="AN26" s="25">
         <f t="shared" si="35"/>
-        <v>517.68642250381811</v>
+        <v>589.88719906195718</v>
       </c>
       <c r="AO26" s="25">
         <f t="shared" si="35"/>
-        <v>507.33269405374176</v>
+        <v>583.98832707133761</v>
       </c>
       <c r="AP26" s="25">
         <f t="shared" si="35"/>
-        <v>497.18604017266694</v>
+        <v>578.14844380062425</v>
       </c>
       <c r="AQ26" s="25">
         <f t="shared" si="35"/>
-        <v>487.24231936921359</v>
+        <v>572.36695936261799</v>
       </c>
       <c r="AR26" s="25">
         <f t="shared" si="35"/>
-        <v>477.49747298182933</v>
+        <v>566.64328976899185</v>
       </c>
       <c r="AS26" s="25">
         <f t="shared" si="35"/>
-        <v>467.94752352219274</v>
+        <v>560.97685687130195</v>
       </c>
       <c r="AT26" s="25">
         <f t="shared" si="35"/>
-        <v>458.58857305174888</v>
+        <v>555.36708830258897</v>
       </c>
       <c r="AU26" s="25">
         <f t="shared" si="35"/>
-        <v>449.41680159071387</v>
+        <v>549.81341741956305</v>
       </c>
       <c r="AV26" s="25">
         <f t="shared" si="35"/>
-        <v>440.42846555889957</v>
+        <v>544.31528324536737</v>
       </c>
       <c r="AW26" s="25">
         <f t="shared" si="35"/>
-        <v>431.61989624772156</v>
+        <v>538.87213041291363</v>
       </c>
       <c r="AX26" s="25">
         <f t="shared" si="35"/>
-        <v>422.98749832276712</v>
+        <v>533.48340910878449</v>
       </c>
       <c r="AY26" s="25">
         <f t="shared" si="35"/>
-        <v>414.52774835631175</v>
+        <v>528.14857501769666</v>
       </c>
       <c r="AZ26" s="25">
         <f t="shared" si="35"/>
-        <v>406.23719338918551</v>
+        <v>522.86708926751965</v>
       </c>
       <c r="BA26" s="25">
         <f t="shared" si="35"/>
-        <v>398.1124495214018</v>
+        <v>517.63841837484449</v>
       </c>
       <c r="BB26" s="25">
         <f t="shared" si="35"/>
-        <v>390.15020053097373</v>
+        <v>512.462034191096</v>
       </c>
       <c r="BC26" s="25">
         <f t="shared" si="35"/>
-        <v>382.34719652035426</v>
+        <v>507.33741384918505</v>
       </c>
       <c r="BD26" s="25">
         <f t="shared" si="35"/>
-        <v>374.70025258994718</v>
+        <v>502.26403971069323</v>
       </c>
       <c r="BE26" s="25">
         <f t="shared" si="35"/>
-        <v>367.20624753814826</v>
+        <v>497.24139931358627</v>
       </c>
       <c r="BF26" s="25">
         <f t="shared" si="35"/>
-        <v>359.86212258738527</v>
+        <v>492.26898532045038</v>
       </c>
       <c r="BG26" s="25">
         <f t="shared" si="35"/>
-        <v>352.66488013563759</v>
+        <v>487.34629546724585</v>
       </c>
       <c r="BH26" s="25">
         <f t="shared" si="35"/>
-        <v>345.61158253292484</v>
+        <v>482.4728325125734</v>
       </c>
       <c r="BI26" s="25">
         <f t="shared" si="35"/>
-        <v>338.69935088226634</v>
+        <v>477.64810418744764</v>
       </c>
       <c r="BJ26" s="25">
         <f t="shared" si="35"/>
-        <v>331.92536386462103</v>
+        <v>472.87162314557315</v>
       </c>
       <c r="BK26" s="25">
         <f t="shared" si="35"/>
-        <v>325.2868565873286</v>
+        <v>468.14290691411742</v>
       </c>
       <c r="BL26" s="25">
         <f t="shared" si="35"/>
-        <v>318.78111945558203</v>
+        <v>463.46147784497623</v>
       </c>
       <c r="BM26" s="25">
         <f t="shared" si="35"/>
-        <v>312.40549706647039</v>
+        <v>458.82686306652647</v>
       </c>
       <c r="BN26" s="25">
         <f t="shared" si="35"/>
-        <v>306.15738712514099</v>
+        <v>454.23859443586122</v>
       </c>
       <c r="BO26" s="25">
         <f t="shared" si="35"/>
-        <v>300.03423938263813</v>
+        <v>449.6962084915026</v>
       </c>
       <c r="BP26" s="25">
         <f t="shared" si="35"/>
-        <v>294.03355459498539</v>
+        <v>445.19924640658758</v>
       </c>
       <c r="BQ26" s="25">
         <f t="shared" si="35"/>
-        <v>288.15288350308566</v>
+        <v>440.7472539425217</v>
       </c>
       <c r="BR26" s="25">
         <f t="shared" si="35"/>
-        <v>282.38982583302396</v>
+        <v>436.33978140309648</v>
       </c>
       <c r="BS26" s="25">
         <f t="shared" si="35"/>
-        <v>276.74202931636347</v>
+        <v>431.97638358906551</v>
       </c>
       <c r="BT26" s="25">
         <f t="shared" si="35"/>
-        <v>271.20718873003619</v>
+        <v>427.65661975317482</v>
       </c>
       <c r="BU26" s="25">
         <f t="shared" si="35"/>
-        <v>265.78304495543546</v>
+        <v>423.38005355564309</v>
       </c>
       <c r="BV26" s="25">
         <f t="shared" si="35"/>
-        <v>260.46738405632675</v>
+        <v>419.14625302008665</v>
       </c>
       <c r="BW26" s="25">
         <f t="shared" si="35"/>
-        <v>255.25803637520022</v>
+        <v>414.9547904898858</v>
       </c>
       <c r="BX26" s="25">
         <f t="shared" si="35"/>
-        <v>250.15287564769622</v>
+        <v>410.80524258498696</v>
       </c>
       <c r="BY26" s="25">
         <f t="shared" si="35"/>
-        <v>245.1498181347423</v>
+        <v>406.69719015913711</v>
       </c>
       <c r="BZ26" s="25">
         <f t="shared" ref="BZ26:DM26" si="36">BY26*($F$2+1)</f>
-        <v>240.24682177204744</v>
+        <v>402.63021825754572</v>
       </c>
       <c r="CA26" s="25">
         <f t="shared" si="36"/>
-        <v>235.44188533660648</v>
+        <v>398.60391607497024</v>
       </c>
       <c r="CB26" s="25">
         <f t="shared" si="36"/>
-        <v>230.73304762987433</v>
+        <v>394.61787691422052</v>
       </c>
       <c r="CC26" s="25">
         <f t="shared" si="36"/>
-        <v>226.11838667727685</v>
+        <v>390.67169814507832</v>
       </c>
       <c r="CD26" s="25">
         <f t="shared" si="36"/>
-        <v>221.59601894373131</v>
+        <v>386.76498116362751</v>
       </c>
       <c r="CE26" s="25">
         <f t="shared" si="36"/>
-        <v>217.16409856485669</v>
+        <v>382.89733135199123</v>
       </c>
       <c r="CF26" s="25">
         <f t="shared" si="36"/>
-        <v>212.82081659355956</v>
+        <v>379.06835803847133</v>
       </c>
       <c r="CG26" s="25">
         <f t="shared" si="36"/>
-        <v>208.56440026168835</v>
+        <v>375.27767445808661</v>
       </c>
       <c r="CH26" s="25">
         <f t="shared" si="36"/>
-        <v>204.39311225645457</v>
+        <v>371.52489771350577</v>
       </c>
       <c r="CI26" s="25">
         <f t="shared" si="36"/>
-        <v>200.30525001132548</v>
+        <v>367.80964873637072</v>
       </c>
       <c r="CJ26" s="25">
         <f t="shared" si="36"/>
-        <v>196.29914501109897</v>
+        <v>364.13155224900703</v>
       </c>
       <c r="CK26" s="25">
         <f t="shared" si="36"/>
-        <v>192.37316211087699</v>
+        <v>360.49023672651697</v>
       </c>
       <c r="CL26" s="25">
         <f t="shared" si="36"/>
-        <v>188.52569886865945</v>
+        <v>356.88533435925177</v>
       </c>
       <c r="CM26" s="25">
         <f t="shared" si="36"/>
-        <v>184.75518489128626</v>
+        <v>353.31648101565924</v>
       </c>
       <c r="CN26" s="25">
         <f t="shared" si="36"/>
-        <v>181.06008119346055</v>
+        <v>349.78331620550262</v>
       </c>
       <c r="CO26" s="25">
         <f t="shared" si="36"/>
-        <v>177.43887956959134</v>
+        <v>346.28548304344758</v>
       </c>
       <c r="CP26" s="25">
         <f t="shared" si="36"/>
-        <v>173.89010197819951</v>
+        <v>342.8226282130131</v>
       </c>
       <c r="CQ26" s="25">
         <f t="shared" si="36"/>
-        <v>170.41229993863553</v>
+        <v>339.39440193088296</v>
       </c>
       <c r="CR26" s="25">
         <f t="shared" si="36"/>
-        <v>167.00405393986281</v>
+        <v>336.00045791157413</v>
       </c>
       <c r="CS26" s="25">
         <f t="shared" si="36"/>
-        <v>163.66397286106556</v>
+        <v>332.64045333245838</v>
       </c>
       <c r="CT26" s="25">
         <f t="shared" si="36"/>
-        <v>160.39069340384424</v>
+        <v>329.31404879913379</v>
       </c>
       <c r="CU26" s="25">
         <f t="shared" si="36"/>
-        <v>157.18287953576734</v>
+        <v>326.02090831114242</v>
       </c>
       <c r="CV26" s="25">
         <f t="shared" si="36"/>
-        <v>154.03922194505199</v>
+        <v>322.760699228031</v>
       </c>
       <c r="CW26" s="25">
         <f t="shared" si="36"/>
-        <v>150.95843750615094</v>
+        <v>319.5330922357507</v>
       </c>
       <c r="CX26" s="25">
         <f t="shared" si="36"/>
-        <v>147.93926875602793</v>
+        <v>316.33776131339317</v>
       </c>
       <c r="CY26" s="25">
         <f t="shared" si="36"/>
-        <v>144.98048338090737</v>
+        <v>313.17438370025923</v>
       </c>
       <c r="CZ26" s="25">
         <f t="shared" si="36"/>
-        <v>142.08087371328924</v>
+        <v>310.04263986325662</v>
       </c>
       <c r="DA26" s="25">
         <f t="shared" si="36"/>
-        <v>139.23925623902346</v>
+        <v>306.94221346462405</v>
       </c>
       <c r="DB26" s="25">
         <f t="shared" si="36"/>
-        <v>136.45447111424298</v>
+        <v>303.87279132997782</v>
       </c>
       <c r="DC26" s="25">
         <f t="shared" si="36"/>
-        <v>133.72538169195812</v>
+        <v>300.83406341667802</v>
       </c>
       <c r="DD26" s="25">
         <f t="shared" si="36"/>
-        <v>131.05087405811895</v>
+        <v>297.82572278251126</v>
       </c>
       <c r="DE26" s="25">
         <f t="shared" si="36"/>
-        <v>128.42985657695658</v>
+        <v>294.84746555468615</v>
       </c>
       <c r="DF26" s="25">
         <f t="shared" si="36"/>
-        <v>125.86125944541745</v>
+        <v>291.89899089913928</v>
       </c>
       <c r="DG26" s="25">
         <f t="shared" si="36"/>
-        <v>123.34403425650909</v>
+        <v>288.98000099014786</v>
       </c>
       <c r="DH26" s="25">
         <f t="shared" si="36"/>
-        <v>120.87715357137891</v>
+        <v>286.09020098024638</v>
       </c>
       <c r="DI26" s="25">
         <f t="shared" si="36"/>
-        <v>118.45961049995134</v>
+        <v>283.22929897044389</v>
       </c>
       <c r="DJ26" s="25">
         <f t="shared" si="36"/>
-        <v>116.09041828995231</v>
+        <v>280.39700598073944</v>
       </c>
       <c r="DK26" s="25">
         <f t="shared" si="36"/>
-        <v>113.76860992415327</v>
+        <v>277.59303592093204</v>
       </c>
       <c r="DL26" s="25">
         <f t="shared" si="36"/>
-        <v>111.4932377256702</v>
+        <v>274.81710556172271</v>
       </c>
       <c r="DM26" s="25">
         <f t="shared" si="36"/>
-        <v>109.2633729711568</v>
+        <v>272.06893450610551</v>
       </c>
       <c r="DN26" s="25">
         <f t="shared" ref="DN26" si="37">DM26*($F$2+1)</f>
-        <v>107.07810551173365</v>
+        <v>269.34824516104447</v>
       </c>
       <c r="DO26" s="25">
         <f t="shared" ref="DO26" si="38">DN26*($F$2+1)</f>
-        <v>104.93654340149898</v>
+        <v>266.65476270943401</v>
       </c>
       <c r="DP26" s="25">
         <f t="shared" ref="DP26" si="39">DO26*($F$2+1)</f>
-        <v>102.83781253346901</v>
+        <v>263.98821508233965</v>
       </c>
       <c r="DQ26" s="25">
         <f t="shared" ref="DQ26" si="40">DP26*($F$2+1)</f>
-        <v>100.78105628279963</v>
+        <v>261.34833293151627</v>
       </c>
       <c r="DR26" s="25">
         <f t="shared" ref="DR26" si="41">DQ26*($F$2+1)</f>
-        <v>98.765435157143628</v>
+        <v>258.73484960220111</v>
       </c>
       <c r="DS26" s="25">
         <f t="shared" ref="DS26" si="42">DR26*($F$2+1)</f>
-        <v>96.790126454000756</v>
+        <v>256.14750110617911</v>
       </c>
       <c r="DT26" s="25">
         <f t="shared" ref="DT26" si="43">DS26*($F$2+1)</f>
-        <v>94.854323924920735</v>
+        <v>253.58602609511732</v>
       </c>
       <c r="DU26" s="25">
         <f t="shared" ref="DU26" si="44">DT26*($F$2+1)</f>
-        <v>92.957237446422312</v>
+        <v>251.05016583416614</v>
       </c>
       <c r="DV26" s="25">
         <f t="shared" ref="DV26" si="45">DU26*($F$2+1)</f>
-        <v>91.098092697493868</v>
+        <v>248.53966417582447</v>
       </c>
       <c r="DW26" s="25">
         <f t="shared" ref="DW26" si="46">DV26*($F$2+1)</f>
-        <v>89.276130843543996</v>
+        <v>246.05426753406621</v>
       </c>
       <c r="DX26" s="25">
         <f t="shared" ref="DX26" si="47">DW26*($F$2+1)</f>
-        <v>87.490608226673118</v>
+        <v>243.59372485872555</v>
       </c>
       <c r="DY26" s="25">
         <f t="shared" ref="DY26" si="48">DX26*($F$2+1)</f>
-        <v>85.740796062139651</v>
+        <v>241.15778761013829</v>
       </c>
       <c r="DZ26" s="25">
         <f t="shared" ref="DZ26" si="49">DY26*($F$2+1)</f>
-        <v>84.025980140896863</v>
+        <v>238.74620973403691</v>
       </c>
       <c r="EA26" s="25">
         <f t="shared" ref="EA26" si="50">DZ26*($F$2+1)</f>
-        <v>82.345460538078925</v>
+        <v>236.35874763669653</v>
       </c>
       <c r="EB26" s="25">
         <f t="shared" ref="EB26" si="51">EA26*($F$2+1)</f>
-        <v>80.698551327317347</v>
+        <v>233.99516016032956</v>
       </c>
       <c r="EC26" s="25">
         <f t="shared" ref="EC26" si="52">EB26*($F$2+1)</f>
-        <v>79.084580300770995</v>
+        <v>231.65520855872626</v>
       </c>
       <c r="ED26" s="25">
         <f t="shared" ref="ED26" si="53">EC26*($F$2+1)</f>
-        <v>77.502888694755569</v>
+        <v>229.338656473139</v>
       </c>
       <c r="EE26" s="25">
         <f t="shared" ref="EE26" si="54">ED26*($F$2+1)</f>
-        <v>75.95283092086045</v>
+        <v>227.04526990840762</v>
       </c>
       <c r="EF26" s="25">
         <f t="shared" ref="EF26" si="55">EE26*($F$2+1)</f>
-        <v>74.43377430244324</v>
+        <v>224.77481720932354</v>
       </c>
       <c r="EG26" s="25">
         <f t="shared" ref="EG26" si="56">EF26*($F$2+1)</f>
-        <v>72.945098816394378</v>
+        <v>222.52706903723032</v>
       </c>
       <c r="EH26" s="25">
         <f t="shared" ref="EH26" si="57">EG26*($F$2+1)</f>
-        <v>71.486196840066484</v>
+        <v>220.30179834685802</v>
       </c>
       <c r="EI26" s="25">
         <f t="shared" ref="EI26" si="58">EH26*($F$2+1)</f>
-        <v>70.056472903265146</v>
+        <v>218.09878036338944</v>
       </c>
       <c r="EJ26" s="25">
         <f t="shared" ref="EJ26" si="59">EI26*($F$2+1)</f>
-        <v>68.655343445199847</v>
+        <v>215.91779255975555</v>
       </c>
       <c r="EK26" s="25">
         <f t="shared" ref="EK26" si="60">EJ26*($F$2+1)</f>
-        <v>67.282236576295844</v>
+        <v>213.75861463415799</v>
       </c>
       <c r="EL26" s="25">
         <f t="shared" ref="EL26" si="61">EK26*($F$2+1)</f>
-        <v>65.936591844769922</v>
+        <v>211.6210284878164</v>
       </c>
       <c r="EM26" s="25">
         <f t="shared" ref="EM26" si="62">EL26*($F$2+1)</f>
-        <v>64.617860007874526</v>
+        <v>209.50481820293822</v>
       </c>
       <c r="EN26" s="25">
         <f t="shared" ref="EN26" si="63">EM26*($F$2+1)</f>
-        <v>63.325502807717037</v>
+        <v>207.40977002090884</v>
       </c>
       <c r="EO26" s="25">
         <f t="shared" ref="EO26" si="64">EN26*($F$2+1)</f>
-        <v>62.058992751562698</v>
+        <v>205.33567232069976</v>
       </c>
       <c r="EP26" s="25">
         <f t="shared" ref="EP26" si="65">EO26*($F$2+1)</f>
-        <v>60.817812896531443</v>
+        <v>203.28231559749275</v>
       </c>
       <c r="EQ26" s="25">
         <f t="shared" ref="EQ26" si="66">EP26*($F$2+1)</f>
-        <v>59.601456638600816</v>
+        <v>201.24949244151782</v>
       </c>
       <c r="ER26" s="25">
         <f t="shared" ref="ER26" si="67">EQ26*($F$2+1)</f>
-        <v>58.409427505828795</v>
+        <v>199.23699751710262</v>
       </c>
       <c r="ES26" s="25">
         <f t="shared" ref="ES26" si="68">ER26*($F$2+1)</f>
-        <v>57.24123895571222</v>
+        <v>197.24462754193161</v>
       </c>
       <c r="ET26" s="25">
         <f t="shared" ref="ET26" si="69">ES26*($F$2+1)</f>
-        <v>56.096414176597975</v>
+        <v>195.27218126651229</v>
       </c>
       <c r="EU26" s="25">
         <f t="shared" ref="EU26" si="70">ET26*($F$2+1)</f>
-        <v>54.974485893066017</v>
+        <v>193.31945945384717</v>
       </c>
       <c r="EV26" s="25">
         <f t="shared" ref="EV26" si="71">EU26*($F$2+1)</f>
-        <v>53.874996175204693</v>
+        <v>191.38626485930871</v>
       </c>
       <c r="EW26" s="25">
         <f t="shared" ref="EW26" si="72">EV26*($F$2+1)</f>
-        <v>52.797496251700601</v>
+        <v>189.47240221071561</v>
       </c>
       <c r="EX26" s="25">
         <f t="shared" ref="EX26" si="73">EW26*($F$2+1)</f>
-        <v>51.741546326666587</v>
+        <v>187.57767818860844</v>
       </c>
       <c r="EY26" s="25">
         <f t="shared" ref="EY26" si="74">EX26*($F$2+1)</f>
-        <v>50.706715400133255</v>
+        <v>185.70190140672236</v>
       </c>
       <c r="EZ26" s="25">
         <f t="shared" ref="EZ26" si="75">EY26*($F$2+1)</f>
-        <v>49.692581092130588</v>
+        <v>183.84488239265514</v>
       </c>
       <c r="FA26" s="25">
         <f t="shared" ref="FA26" si="76">EZ26*($F$2+1)</f>
-        <v>48.698729470287972</v>
+        <v>182.0064335687286</v>
       </c>
       <c r="FB26" s="25">
         <f t="shared" ref="FB26" si="77">FA26*($F$2+1)</f>
-        <v>47.724754880882209</v>
+        <v>180.18636923304132</v>
       </c>
       <c r="FC26" s="25">
         <f t="shared" ref="FC26" si="78">FB26*($F$2+1)</f>
-        <v>46.770259783264564</v>
+        <v>178.3845055407109</v>
       </c>
       <c r="FD26" s="25">
         <f t="shared" ref="FD26" si="79">FC26*($F$2+1)</f>
-        <v>45.834854587599274</v>
+        <v>176.60066048530379</v>
       </c>
       <c r="FE26" s="25">
         <f t="shared" ref="FE26" si="80">FD26*($F$2+1)</f>
-        <v>44.918157495847289</v>
+        <v>174.83465388045076</v>
       </c>
       <c r="FF26" s="25">
         <f t="shared" ref="FF26" si="81">FE26*($F$2+1)</f>
-        <v>44.019794345930343</v>
+        <v>173.08630734164626</v>
       </c>
       <c r="FG26" s="25">
         <f t="shared" ref="FG26" si="82">FF26*($F$2+1)</f>
-        <v>43.139398459011737</v>
+        <v>171.3554442682298</v>
       </c>
       <c r="FH26" s="25">
         <f t="shared" ref="FH26" si="83">FG26*($F$2+1)</f>
-        <v>42.276610489831505</v>
+        <v>169.64188982554751</v>
       </c>
       <c r="FI26" s="25">
         <f t="shared" ref="FI26" si="84">FH26*($F$2+1)</f>
-        <v>41.431078280034875</v>
+        <v>167.94547092729204</v>
       </c>
       <c r="FJ26" s="25">
         <f t="shared" ref="FJ26" si="85">FI26*($F$2+1)</f>
-        <v>40.602456714434176</v>
+        <v>166.2660162180191</v>
       </c>
       <c r="FK26" s="25">
         <f t="shared" ref="FK26" si="86">FJ26*($F$2+1)</f>
-        <v>39.790407580145491</v>
+        <v>164.6033560558389</v>
       </c>
       <c r="FL26" s="25">
         <f t="shared" ref="FL26" si="87">FK26*($F$2+1)</f>
-        <v>38.994599428542578</v>
+        <v>162.95732249528052</v>
       </c>
       <c r="FM26" s="25">
         <f t="shared" ref="FM26" si="88">FL26*($F$2+1)</f>
-        <v>38.214707439971725</v>
+        <v>161.32774927032773</v>
       </c>
       <c r="FN26" s="25">
         <f t="shared" ref="FN26" si="89">FM26*($F$2+1)</f>
-        <v>37.450413291172289</v>
+        <v>159.71447177762445</v>
       </c>
       <c r="FO26" s="25">
         <f t="shared" ref="FO26" si="90">FN26*($F$2+1)</f>
-        <v>36.701405025348841</v>
+        <v>158.11732705984821</v>
       </c>
       <c r="FP26" s="25">
         <f t="shared" ref="FP26" si="91">FO26*($F$2+1)</f>
-        <v>35.967376924841865</v>
+        <v>156.53615378924974</v>
       </c>
       <c r="FQ26" s="25">
         <f t="shared" ref="FQ26" si="92">FP26*($F$2+1)</f>
-        <v>35.248029386345024</v>
+        <v>154.97079225135724</v>
       </c>
       <c r="FR26" s="25">
         <f t="shared" ref="FR26" si="93">FQ26*($F$2+1)</f>
-        <v>34.543068798618123</v>
+        <v>153.42108432884368</v>
       </c>
       <c r="FS26" s="25">
         <f t="shared" ref="FS26" si="94">FR26*($F$2+1)</f>
-        <v>33.852207422645762</v>
+        <v>151.88687348555524</v>
       </c>
       <c r="FT26" s="25">
         <f t="shared" ref="FT26" si="95">FS26*($F$2+1)</f>
-        <v>33.175163274192847</v>
+        <v>150.3680047506997</v>
       </c>
       <c r="FU26" s="25">
         <f t="shared" ref="FU26" si="96">FT26*($F$2+1)</f>
-        <v>32.511660008708986</v>
+        <v>148.86432470319269</v>
       </c>
       <c r="FV26" s="25">
         <f t="shared" ref="FV26" si="97">FU26*($F$2+1)</f>
-        <v>31.861426808534805</v>
+        <v>147.37568145616078</v>
       </c>
       <c r="FW26" s="25">
         <f t="shared" ref="FW26" si="98">FV26*($F$2+1)</f>
-        <v>31.224198272364109</v>
+        <v>145.90192464159918</v>
       </c>
       <c r="FX26" s="25">
         <f t="shared" ref="FX26" si="99">FW26*($F$2+1)</f>
-        <v>30.599714306916827</v>
+        <v>144.44290539518317</v>
       </c>
       <c r="FY26" s="25">
         <f t="shared" ref="FY26" si="100">FX26*($F$2+1)</f>
-        <v>29.98772002077849</v>
+        <v>142.99847634123134</v>
       </c>
       <c r="FZ26" s="25">
         <f t="shared" ref="FZ26" si="101">FY26*($F$2+1)</f>
-        <v>29.38796562036292</v>
+        <v>141.56849157781903</v>
       </c>
       <c r="GA26" s="25">
         <f t="shared" ref="GA26" si="102">FZ26*($F$2+1)</f>
-        <v>28.800206307955662</v>
+        <v>140.15280666204083</v>
       </c>
       <c r="GB26" s="25">
         <f t="shared" ref="GB26" si="103">GA26*($F$2+1)</f>
-        <v>28.224202181796549</v>
+        <v>138.75127859542042</v>
       </c>
       <c r="GC26" s="25">
         <f t="shared" ref="GC26" si="104">GB26*($F$2+1)</f>
-        <v>27.659718138160617</v>
+        <v>137.3637658094662</v>
       </c>
       <c r="GD26" s="25">
         <f t="shared" ref="GD26" si="105">GC26*($F$2+1)</f>
-        <v>27.106523775397402</v>
+        <v>135.99012815137155</v>
       </c>
       <c r="GE26" s="25">
         <f t="shared" ref="GE26" si="106">GD26*($F$2+1)</f>
-        <v>26.564393299889453</v>
+        <v>134.63022686985784</v>
       </c>
       <c r="GF26" s="25">
         <f t="shared" ref="GF26" si="107">GE26*($F$2+1)</f>
-        <v>26.033105433891663</v>
+        <v>133.28392460115924</v>
       </c>
       <c r="GG26" s="25">
         <f t="shared" ref="GG26" si="108">GF26*($F$2+1)</f>
-        <v>25.51244332521383</v>
+        <v>131.95108535514765</v>
       </c>
       <c r="GH26" s="25">
         <f t="shared" ref="GH26" si="109">GG26*($F$2+1)</f>
-        <v>25.002194458709553</v>
+        <v>130.63157450159616</v>
       </c>
       <c r="GI26" s="25">
         <f t="shared" ref="GI26" si="110">GH26*($F$2+1)</f>
-        <v>24.502150569535363</v>
+        <v>129.32525875658021</v>
       </c>
       <c r="GJ26" s="25">
         <f t="shared" ref="GJ26" si="111">GI26*($F$2+1)</f>
-        <v>24.012107558144656</v>
+        <v>128.03200616901441</v>
       </c>
       <c r="GK26" s="25">
         <f t="shared" ref="GK26" si="112">GJ26*($F$2+1)</f>
-        <v>23.531865406981762</v>
+        <v>126.75168610732426</v>
       </c>
       <c r="GL26" s="25">
         <f t="shared" ref="GL26" si="113">GK26*($F$2+1)</f>
-        <v>23.061228098842125</v>
+        <v>125.48416924625101</v>
       </c>
       <c r="GM26" s="25">
         <f t="shared" ref="GM26" si="114">GL26*($F$2+1)</f>
-        <v>22.600003536865284</v>
+        <v>124.22932755378851</v>
       </c>
       <c r="GN26" s="25">
         <f t="shared" ref="GN26" si="115">GM26*($F$2+1)</f>
-        <v>22.148003466127978</v>
+        <v>122.98703427825062</v>
       </c>
       <c r="GO26" s="25">
         <f t="shared" ref="GO26" si="116">GN26*($F$2+1)</f>
-        <v>21.705043396805419</v>
+        <v>121.75716393546811</v>
       </c>
       <c r="GP26" s="25">
         <f t="shared" ref="GP26" si="117">GO26*($F$2+1)</f>
-        <v>21.270942528869309</v>
+        <v>120.53959229611343</v>
       </c>
       <c r="GQ26" s="25">
         <f t="shared" ref="GQ26" si="118">GP26*($F$2+1)</f>
-        <v>20.845523678291922</v>
+        <v>119.3341963731523</v>
       </c>
       <c r="GR26" s="25">
         <f t="shared" ref="GR26" si="119">GQ26*($F$2+1)</f>
-        <v>20.428613204726084</v>
+        <v>118.14085440942077</v>
       </c>
     </row>
     <row r="27" spans="1:200" x14ac:dyDescent="0.15">
@@ -4520,72 +4534,72 @@
       <c r="C27" s="45"/>
       <c r="D27" s="38"/>
       <c r="E27" s="29" t="e">
-        <f t="shared" ref="B27:G27" si="120">E26/E28</f>
+        <f t="shared" ref="E27:G27" si="120">E26/E28</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F27" s="29">
         <f t="shared" si="120"/>
-        <v>-1.7395842444386134</v>
+        <v>-1.7128913258788234</v>
       </c>
       <c r="G27" s="54">
         <f t="shared" si="120"/>
-        <v>-1.6475873932184613</v>
+        <v>-1.6223061133678787</v>
       </c>
       <c r="H27" s="54">
         <f t="shared" ref="H27" si="121">H26/H28</f>
-        <v>-1.5727094667483017</v>
+        <v>-1.5485771455638966</v>
       </c>
       <c r="I27" s="54">
         <f t="shared" ref="I27:P27" si="122">I26/I28</f>
-        <v>-1.5963368243972142</v>
+        <v>-1.5718419550145708</v>
       </c>
       <c r="J27" s="54">
         <f t="shared" si="122"/>
-        <v>-1.433038142505614</v>
+        <v>-1.4110489973674782</v>
       </c>
       <c r="K27" s="54">
         <f t="shared" si="122"/>
-        <v>-0.95084238821965961</v>
+        <v>-0.93625225927759503</v>
       </c>
       <c r="L27" s="54">
         <f t="shared" si="122"/>
-        <v>-0.11736754491798654</v>
+        <v>-0.11556660752270143</v>
       </c>
       <c r="M27" s="54">
         <f t="shared" si="122"/>
-        <v>0.79923813273951672</v>
+        <v>0.66892814123208355</v>
       </c>
       <c r="N27" s="54">
         <f t="shared" si="122"/>
-        <v>1.8076591518212806</v>
+        <v>1.5109266291313697</v>
       </c>
       <c r="O27" s="54">
         <f t="shared" si="122"/>
-        <v>2.9174483834425899</v>
+        <v>2.4351998452124524</v>
       </c>
       <c r="P27" s="54">
         <f t="shared" si="122"/>
-        <v>4.1391140477397279</v>
+        <v>3.450244573584424</v>
       </c>
       <c r="Q27" s="54">
         <f t="shared" ref="Q27:U27" si="123">Q26/Q28</f>
-        <v>4.9357938575761606</v>
+        <v>4.5654058142923963</v>
       </c>
       <c r="R27" s="54">
         <f t="shared" si="123"/>
-        <v>6.2590495843860445</v>
+        <v>5.790961700864389</v>
       </c>
       <c r="S27" s="54">
         <f t="shared" si="123"/>
-        <v>7.7145863062742235</v>
+        <v>7.1382169088277614</v>
       </c>
       <c r="T27" s="54">
         <f t="shared" si="123"/>
-        <v>9.3159308953865043</v>
+        <v>8.6196054043271957</v>
       </c>
       <c r="U27" s="54">
         <f t="shared" si="123"/>
-        <v>11.077962297490068</v>
+        <v>10.248803466888948</v>
       </c>
       <c r="V27" s="39"/>
       <c r="W27" s="39"/>
@@ -4697,67 +4711,67 @@
       </c>
       <c r="F28" s="24">
         <f>AVERAGE(Reports!R22:U22)</f>
-        <v>68.597999999999999</v>
+        <v>69.667000000000002</v>
       </c>
       <c r="G28" s="24">
         <f t="shared" ref="G28" si="124">F28</f>
-        <v>68.597999999999999</v>
+        <v>69.667000000000002</v>
       </c>
       <c r="H28" s="24">
         <f t="shared" ref="H28" si="125">G28</f>
-        <v>68.597999999999999</v>
+        <v>69.667000000000002</v>
       </c>
       <c r="I28" s="24">
         <f t="shared" ref="I28" si="126">H28</f>
-        <v>68.597999999999999</v>
+        <v>69.667000000000002</v>
       </c>
       <c r="J28" s="24">
         <f t="shared" ref="J28" si="127">I28</f>
-        <v>68.597999999999999</v>
+        <v>69.667000000000002</v>
       </c>
       <c r="K28" s="24">
         <f t="shared" ref="K28" si="128">J28</f>
-        <v>68.597999999999999</v>
+        <v>69.667000000000002</v>
       </c>
       <c r="L28" s="24">
         <f t="shared" ref="L28" si="129">K28</f>
-        <v>68.597999999999999</v>
+        <v>69.667000000000002</v>
       </c>
       <c r="M28" s="24">
         <f t="shared" ref="M28" si="130">L28</f>
-        <v>68.597999999999999</v>
+        <v>69.667000000000002</v>
       </c>
       <c r="N28" s="24">
         <f t="shared" ref="N28" si="131">M28</f>
-        <v>68.597999999999999</v>
+        <v>69.667000000000002</v>
       </c>
       <c r="O28" s="24">
         <f t="shared" ref="O28" si="132">N28</f>
-        <v>68.597999999999999</v>
+        <v>69.667000000000002</v>
       </c>
       <c r="P28" s="24">
         <f t="shared" ref="P28:U28" si="133">O28</f>
-        <v>68.597999999999999</v>
+        <v>69.667000000000002</v>
       </c>
       <c r="Q28" s="24">
         <f t="shared" si="133"/>
-        <v>68.597999999999999</v>
+        <v>69.667000000000002</v>
       </c>
       <c r="R28" s="24">
         <f t="shared" si="133"/>
-        <v>68.597999999999999</v>
+        <v>69.667000000000002</v>
       </c>
       <c r="S28" s="24">
         <f t="shared" si="133"/>
-        <v>68.597999999999999</v>
+        <v>69.667000000000002</v>
       </c>
       <c r="T28" s="24">
         <f t="shared" si="133"/>
-        <v>68.597999999999999</v>
+        <v>69.667000000000002</v>
       </c>
       <c r="U28" s="24">
         <f t="shared" si="133"/>
-        <v>68.597999999999999</v>
+        <v>69.667000000000002</v>
       </c>
       <c r="V28" s="38"/>
       <c r="W28" s="38"/>
@@ -4986,7 +5000,7 @@
         <v>0.81818181818181823</v>
       </c>
       <c r="F30" s="34">
-        <f t="shared" ref="B30:P30" si="134">IFERROR(F17/F15,0)</f>
+        <f t="shared" ref="F30:P30" si="134">IFERROR(F17/F15,0)</f>
         <v>0.86100933529865942</v>
       </c>
       <c r="G30" s="34">
@@ -5158,7 +5172,7 @@
         <v>-0.68831168831168832</v>
       </c>
       <c r="F31" s="36">
-        <f t="shared" ref="B31:P31" si="136">IFERROR(F22/F15,0)</f>
+        <f t="shared" ref="F31:P31" si="136">IFERROR(F22/F15,0)</f>
         <v>-0.83759387941320973</v>
       </c>
       <c r="G31" s="36">
@@ -5330,7 +5344,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="36">
-        <f t="shared" ref="B32:P32" si="138">IFERROR(F25/F24,0)</f>
+        <f t="shared" ref="F32:P32" si="138">IFERROR(F25/F24,0)</f>
         <v>0</v>
       </c>
       <c r="G32" s="36">
@@ -5359,39 +5373,39 @@
       </c>
       <c r="M32" s="36">
         <f t="shared" si="138"/>
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="N32" s="36">
         <f t="shared" si="138"/>
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="O32" s="36">
         <f t="shared" si="138"/>
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="P32" s="36">
         <f t="shared" si="138"/>
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="Q32" s="36">
         <f t="shared" ref="Q32:U32" si="139">IFERROR(Q25/Q24,0)</f>
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="R32" s="36">
         <f t="shared" si="139"/>
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="S32" s="36">
         <f t="shared" si="139"/>
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="T32" s="36">
         <f t="shared" si="139"/>
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="U32" s="36">
         <f t="shared" si="139"/>
-        <v>0.10000000000000002</v>
+        <v>0.15</v>
       </c>
       <c r="V32" s="39"/>
       <c r="W32" s="39"/>
@@ -5621,7 +5635,7 @@
         <v>0.85025974025974027</v>
       </c>
       <c r="G34" s="55">
-        <f t="shared" ref="C34:U34" si="140">G15/F15-1</f>
+        <f t="shared" ref="G34:U34" si="140">G15/F15-1</f>
         <v>0.60000000000000009</v>
       </c>
       <c r="H34" s="55">
@@ -5786,7 +5800,7 @@
       <c r="D35" s="38"/>
       <c r="E35" s="36"/>
       <c r="F35" s="36">
-        <f t="shared" ref="C35:U35" si="141">F18/E18-1</f>
+        <f t="shared" ref="F35:U35" si="141">F18/E18-1</f>
         <v>1.0697674418604652</v>
       </c>
       <c r="G35" s="36">
@@ -5955,7 +5969,7 @@
       <c r="D36" s="38"/>
       <c r="E36" s="36"/>
       <c r="F36" s="36">
-        <f t="shared" ref="C36:U36" si="142">F19/E19-1</f>
+        <f t="shared" ref="F36:U36" si="142">F19/E19-1</f>
         <v>1.0384615384615383</v>
       </c>
       <c r="G36" s="36">
@@ -6124,7 +6138,7 @@
       <c r="D37" s="38"/>
       <c r="E37" s="36"/>
       <c r="F37" s="36">
-        <f t="shared" ref="C37:U37" si="143">F20/E20-1</f>
+        <f t="shared" ref="F37:U37" si="143">F20/E20-1</f>
         <v>1.2380952380952381</v>
       </c>
       <c r="G37" s="36">
@@ -6612,39 +6626,39 @@
       </c>
       <c r="M40" s="56">
         <f t="shared" si="145"/>
-        <v>-299.16591554331103</v>
+        <v>-307.38983615776084</v>
       </c>
       <c r="N40" s="56">
         <f t="shared" si="145"/>
-        <v>-175.16411304667483</v>
+        <v>-202.12811068606572</v>
       </c>
       <c r="O40" s="56">
         <f t="shared" si="145"/>
-        <v>24.967011160719949</v>
+        <v>-32.475043069649814</v>
       </c>
       <c r="P40" s="56">
         <f t="shared" si="145"/>
-        <v>308.90195660756979</v>
+        <v>207.89314563825627</v>
       </c>
       <c r="Q40" s="56">
         <f t="shared" si="145"/>
-        <v>647.48754364957927</v>
+        <v>525.95127250256473</v>
       </c>
       <c r="R40" s="56">
         <f t="shared" si="145"/>
-        <v>1076.845827039293</v>
+        <v>929.39020131668417</v>
       </c>
       <c r="S40" s="56">
         <f t="shared" si="145"/>
-        <v>1606.0510184770922</v>
+        <v>1426.6883587039879</v>
       </c>
       <c r="T40" s="56">
         <f t="shared" si="145"/>
-        <v>2245.1052460388155</v>
+        <v>2027.1904084072507</v>
       </c>
       <c r="U40" s="56">
         <f t="shared" si="145"/>
-        <v>3005.0313037220394</v>
+        <v>2741.1937995350031</v>
       </c>
       <c r="V40" s="39"/>
       <c r="W40" s="39"/>
@@ -8851,7 +8865,7 @@
       <c r="C58" s="45"/>
       <c r="D58" s="38"/>
       <c r="E58" s="61">
-        <f t="shared" ref="B58:K58" si="146">E26/E18-1</f>
+        <f t="shared" ref="E58:K58" si="146">E26/E18-1</f>
         <v>-2.2325581395348837</v>
       </c>
       <c r="F58" s="61">
@@ -8995,32 +9009,32 @@
       <c r="C59" s="45"/>
       <c r="D59" s="38"/>
       <c r="E59" s="65" t="str">
-        <f t="shared" ref="B59:K59" si="147">ROUND($C$4/E18,0)&amp;"x"</f>
-        <v>53x</v>
+        <f t="shared" ref="E59:K59" si="147">ROUND($C$4/E18,0)&amp;"x"</f>
+        <v>75x</v>
       </c>
       <c r="F59" s="65" t="str">
         <f t="shared" si="147"/>
-        <v>26x</v>
+        <v>36x</v>
       </c>
       <c r="G59" s="65" t="str">
         <f t="shared" si="147"/>
-        <v>20x</v>
+        <v>28x</v>
       </c>
       <c r="H59" s="65" t="str">
         <f t="shared" si="147"/>
-        <v>15x</v>
+        <v>21x</v>
       </c>
       <c r="I59" s="65" t="str">
         <f t="shared" si="147"/>
-        <v>12x</v>
+        <v>17x</v>
       </c>
       <c r="J59" s="65" t="str">
         <f t="shared" si="147"/>
-        <v>9x</v>
+        <v>13x</v>
       </c>
       <c r="K59" s="65" t="str">
         <f t="shared" si="147"/>
-        <v>7x</v>
+        <v>10x</v>
       </c>
       <c r="L59" s="64" t="s">
         <v>82</v>
@@ -9258,27 +9272,27 @@
       <c r="D61" s="38"/>
       <c r="E61" s="61"/>
       <c r="F61" s="61">
-        <f>F10/E10-1</f>
+        <f t="shared" ref="F61:K61" si="148">F10/E10-1</f>
         <v>0.85025974025974027</v>
       </c>
       <c r="G61" s="61">
-        <f>G10/F10-1</f>
+        <f t="shared" si="148"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="H61" s="61">
-        <f>H10/G10-1</f>
+        <f t="shared" si="148"/>
         <v>0.5</v>
       </c>
       <c r="I61" s="61">
-        <f>I10/H10-1</f>
+        <f t="shared" si="148"/>
         <v>0.39999999999999991</v>
       </c>
       <c r="J61" s="61">
-        <f>J10/I10-1</f>
+        <f t="shared" si="148"/>
         <v>0.39999999999999991</v>
       </c>
       <c r="K61" s="61">
-        <f>K10/J10-1</f>
+        <f t="shared" si="148"/>
         <v>0.39999999999999991</v>
       </c>
       <c r="L61" s="39"/>
@@ -9773,11 +9787,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="O3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="R3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S38" sqref="S38"/>
+      <selection pane="bottomRight" activeCell="AA31" sqref="AA31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -9909,6 +9923,9 @@
       <c r="W2" s="66">
         <v>44043</v>
       </c>
+      <c r="X2" s="66">
+        <v>44135</v>
+      </c>
     </row>
     <row r="3" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
@@ -9956,7 +9973,9 @@
       <c r="W3" s="24">
         <v>52</v>
       </c>
-      <c r="X3" s="24"/>
+      <c r="X3" s="24">
+        <v>58.905000000000001</v>
+      </c>
       <c r="Y3" s="24"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.15">
@@ -10035,7 +10054,7 @@
       <c r="X6" s="45"/>
       <c r="Y6" s="45"/>
     </row>
-    <row r="7" spans="1:25" s="40" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:25" s="24" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B7" s="46"/>
       <c r="C7" s="45"/>
       <c r="D7" s="45"/>
@@ -10048,11 +10067,14 @@
       <c r="K7" s="45"/>
       <c r="L7" s="45"/>
       <c r="M7" s="45"/>
-      <c r="N7" s="41"/>
-      <c r="R7" s="41"/>
-      <c r="V7" s="41"/>
-      <c r="X7" s="40">
+      <c r="N7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="V7" s="23"/>
+      <c r="X7" s="24">
         <v>53</v>
+      </c>
+      <c r="Y7" s="24">
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.15">
@@ -10072,49 +10094,52 @@
       <c r="L8" s="45"/>
       <c r="M8" s="45"/>
       <c r="N8" s="26">
-        <f>SUM(N3:N3)</f>
+        <f t="shared" ref="N8:X8" si="0">SUM(N3:N3)</f>
         <v>14</v>
       </c>
       <c r="O8" s="25">
-        <f>SUM(O3:O3)</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="P8" s="25">
-        <f>SUM(P3:P3)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="Q8" s="25">
-        <f>SUM(Q3:Q3)</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="R8" s="26">
-        <f>SUM(R3:R3)</f>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="S8" s="25">
-        <f>SUM(S3:S3)</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="T8" s="25">
-        <f>SUM(T3:T3)</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="U8" s="25">
-        <f>SUM(U3:U3)</f>
+        <f t="shared" si="0"/>
         <v>43.47</v>
       </c>
       <c r="V8" s="26">
-        <f>SUM(V3:V3)</f>
+        <f t="shared" si="0"/>
         <v>47.706000000000003</v>
       </c>
       <c r="W8" s="25">
-        <f>SUM(W3:W3)</f>
+        <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="X8" s="56">
-        <v>53</v>
-      </c>
-      <c r="Y8" s="56"/>
+      <c r="X8" s="25">
+        <f t="shared" si="0"/>
+        <v>58.905000000000001</v>
+      </c>
+      <c r="Y8" s="56">
+        <v>62</v>
+      </c>
     </row>
     <row r="9" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
@@ -10162,7 +10187,9 @@
       <c r="W9" s="57">
         <v>7</v>
       </c>
-      <c r="X9" s="57"/>
+      <c r="X9" s="57">
+        <v>7.3209999999999997</v>
+      </c>
       <c r="Y9" s="57"/>
     </row>
     <row r="10" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -10190,38 +10217,41 @@
         <v>15</v>
       </c>
       <c r="P10" s="27">
-        <f t="shared" ref="P10:R10" si="0">P8-P9</f>
+        <f t="shared" ref="P10:R10" si="1">P8-P9</f>
         <v>17</v>
       </c>
       <c r="Q10" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="R10" s="28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="S10" s="27">
-        <f t="shared" ref="S10:W10" si="1">S8-S9</f>
+        <f t="shared" ref="S10:X10" si="2">S8-S9</f>
         <v>28</v>
       </c>
       <c r="T10" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="U10" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>37.667999999999999</v>
       </c>
       <c r="V10" s="28">
-        <f t="shared" ref="V10" si="2">V8-V9</f>
+        <f t="shared" ref="V10" si="3">V8-V9</f>
         <v>41.706000000000003</v>
       </c>
       <c r="W10" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="X10" s="57"/>
+      <c r="X10" s="27">
+        <f t="shared" si="2"/>
+        <v>51.584000000000003</v>
+      </c>
       <c r="Y10" s="57"/>
     </row>
     <row r="11" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -10270,7 +10300,9 @@
       <c r="W11" s="57">
         <v>26</v>
       </c>
-      <c r="X11" s="57"/>
+      <c r="X11" s="57">
+        <v>33</v>
+      </c>
       <c r="Y11" s="57"/>
     </row>
     <row r="12" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -10319,7 +10351,9 @@
       <c r="W12" s="57">
         <v>39</v>
       </c>
-      <c r="X12" s="57"/>
+      <c r="X12" s="57">
+        <v>48</v>
+      </c>
       <c r="Y12" s="57"/>
     </row>
     <row r="13" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -10368,7 +10402,9 @@
       <c r="W13" s="57">
         <v>14</v>
       </c>
-      <c r="X13" s="57"/>
+      <c r="X13" s="57">
+        <v>32</v>
+      </c>
       <c r="Y13" s="57"/>
     </row>
     <row r="14" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -10388,46 +10424,49 @@
       <c r="L14" s="45"/>
       <c r="M14" s="45"/>
       <c r="N14" s="28">
-        <f t="shared" ref="M14:N14" si="3">SUM(N11:N13)</f>
+        <f t="shared" ref="N14" si="4">SUM(N11:N13)</f>
         <v>23</v>
       </c>
       <c r="O14" s="27">
-        <f t="shared" ref="O14:P14" si="4">SUM(O11:O13)</f>
+        <f t="shared" ref="O14:P14" si="5">SUM(O11:O13)</f>
         <v>31</v>
       </c>
       <c r="P14" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29</v>
       </c>
       <c r="Q14" s="27">
-        <f t="shared" ref="Q14:S14" si="5">SUM(Q11:Q13)</f>
+        <f t="shared" ref="Q14:S14" si="6">SUM(Q11:Q13)</f>
         <v>33</v>
       </c>
       <c r="R14" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>39</v>
       </c>
       <c r="S14" s="27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>44</v>
       </c>
       <c r="T14" s="27">
-        <f t="shared" ref="T14:U14" si="6">SUM(T11:T13)</f>
+        <f t="shared" ref="T14:U14" si="7">SUM(T11:T13)</f>
         <v>96</v>
       </c>
       <c r="U14" s="27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>63</v>
       </c>
       <c r="V14" s="28">
-        <f t="shared" ref="V14:W14" si="7">SUM(V11:V13)</f>
+        <f t="shared" ref="V14:W14" si="8">SUM(V11:V13)</f>
         <v>70</v>
       </c>
       <c r="W14" s="27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>79</v>
       </c>
-      <c r="X14" s="57"/>
+      <c r="X14" s="27">
+        <f t="shared" ref="X14" si="9">SUM(X11:X13)</f>
+        <v>113</v>
+      </c>
       <c r="Y14" s="57"/>
     </row>
     <row r="15" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -10447,46 +10486,49 @@
       <c r="L15" s="45"/>
       <c r="M15" s="45"/>
       <c r="N15" s="28">
-        <f t="shared" ref="I15:P15" si="8">N10-N14</f>
+        <f t="shared" ref="N15:P15" si="10">N10-N14</f>
         <v>-12</v>
       </c>
       <c r="O15" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-16</v>
       </c>
       <c r="P15" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-12</v>
       </c>
       <c r="Q15" s="27">
-        <f t="shared" ref="Q15:S15" si="9">Q10-Q14</f>
+        <f t="shared" ref="Q15:S15" si="11">Q10-Q14</f>
         <v>-13</v>
       </c>
       <c r="R15" s="28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-15</v>
       </c>
       <c r="S15" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-16</v>
       </c>
       <c r="T15" s="27">
-        <f t="shared" ref="T15:U15" si="10">T10-T14</f>
+        <f t="shared" ref="T15:U15" si="12">T10-T14</f>
         <v>-63</v>
       </c>
       <c r="U15" s="27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>-25.332000000000001</v>
       </c>
       <c r="V15" s="28">
-        <f t="shared" ref="V15:W15" si="11">V10-V14</f>
+        <f t="shared" ref="V15:W15" si="13">V10-V14</f>
         <v>-28.293999999999997</v>
       </c>
       <c r="W15" s="27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-34</v>
       </c>
-      <c r="X15" s="57"/>
+      <c r="X15" s="27">
+        <f t="shared" ref="X15" si="14">X10-X14</f>
+        <v>-61.415999999999997</v>
+      </c>
       <c r="Y15" s="57"/>
     </row>
     <row r="16" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -10537,7 +10579,9 @@
         <f>-8+1</f>
         <v>-7</v>
       </c>
-      <c r="X16" s="57"/>
+      <c r="X16" s="57">
+        <v>-11</v>
+      </c>
       <c r="Y16" s="57"/>
     </row>
     <row r="17" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -10557,46 +10601,49 @@
       <c r="L17" s="45"/>
       <c r="M17" s="45"/>
       <c r="N17" s="28">
-        <f t="shared" ref="L17:N17" si="12">N15+N16</f>
+        <f t="shared" ref="N17" si="15">N15+N16</f>
         <v>-12</v>
       </c>
       <c r="O17" s="27">
-        <f t="shared" ref="O17" si="13">O15+O16</f>
+        <f t="shared" ref="O17" si="16">O15+O16</f>
         <v>-16</v>
       </c>
       <c r="P17" s="27">
-        <f t="shared" ref="P17:T17" si="14">P15+P16</f>
+        <f t="shared" ref="P17:T17" si="17">P15+P16</f>
         <v>-12</v>
       </c>
       <c r="Q17" s="27">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-13</v>
       </c>
       <c r="R17" s="28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-15</v>
       </c>
       <c r="S17" s="27">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-16</v>
       </c>
       <c r="T17" s="27">
-        <f t="shared" si="14"/>
+        <f t="shared" si="17"/>
         <v>-63</v>
       </c>
       <c r="U17" s="27">
-        <f t="shared" ref="U17" si="15">U15+U16</f>
+        <f t="shared" ref="U17" si="18">U15+U16</f>
         <v>-25.332000000000001</v>
       </c>
       <c r="V17" s="28">
-        <f t="shared" ref="V17:W17" si="16">V15+V16</f>
+        <f t="shared" ref="V17:X17" si="19">V15+V16</f>
         <v>-34.293999999999997</v>
       </c>
       <c r="W17" s="27">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>-41</v>
       </c>
-      <c r="X17" s="57"/>
+      <c r="X17" s="27">
+        <f t="shared" si="19"/>
+        <v>-72.415999999999997</v>
+      </c>
       <c r="Y17" s="57"/>
     </row>
     <row r="18" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -10645,7 +10692,9 @@
       <c r="W18" s="24">
         <v>0</v>
       </c>
-      <c r="X18" s="24"/>
+      <c r="X18" s="24">
+        <v>1</v>
+      </c>
       <c r="Y18" s="24"/>
     </row>
     <row r="19" spans="1:25" s="51" customFormat="1" x14ac:dyDescent="0.15">
@@ -10694,46 +10743,49 @@
       <c r="L20" s="45"/>
       <c r="M20" s="45"/>
       <c r="N20" s="26">
-        <f t="shared" ref="I20:O20" si="17">N17-N18</f>
+        <f t="shared" ref="N20:O20" si="20">N17-N18</f>
         <v>-12</v>
       </c>
       <c r="O20" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>-16</v>
       </c>
       <c r="P20" s="25">
-        <f t="shared" ref="P20:S20" si="18">P17-P18</f>
+        <f t="shared" ref="P20:S20" si="21">P17-P18</f>
         <v>-12</v>
       </c>
       <c r="Q20" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>-13</v>
       </c>
       <c r="R20" s="26">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>-15</v>
       </c>
       <c r="S20" s="25">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>-16</v>
       </c>
       <c r="T20" s="25">
-        <f t="shared" ref="T20:U20" si="19">T17-T18</f>
+        <f t="shared" ref="T20:U20" si="22">T17-T18</f>
         <v>-63</v>
       </c>
       <c r="U20" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>-25.332000000000001</v>
       </c>
       <c r="V20" s="26">
-        <f t="shared" ref="V20:W20" si="20">V17-V18</f>
+        <f t="shared" ref="V20:W20" si="23">V17-V18</f>
         <v>-34.293999999999997</v>
       </c>
       <c r="W20" s="25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>-41</v>
       </c>
-      <c r="X20" s="56"/>
+      <c r="X20" s="25">
+        <f t="shared" ref="X20" si="24">X17-X18</f>
+        <v>-73.415999999999997</v>
+      </c>
       <c r="Y20" s="56"/>
     </row>
     <row r="21" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.15">
@@ -10753,46 +10805,49 @@
       <c r="L21" s="45"/>
       <c r="M21" s="45"/>
       <c r="N21" s="69">
-        <f t="shared" ref="N21:S21" si="21">IFERROR(N20/N22,0)</f>
+        <f t="shared" ref="N21:S21" si="25">IFERROR(N20/N22,0)</f>
         <v>0</v>
       </c>
       <c r="O21" s="68">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="P21" s="68">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Q21" s="68">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="R21" s="69">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="S21" s="68">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>-0.23324295168955364</v>
       </c>
       <c r="T21" s="68">
-        <f t="shared" ref="T21:U21" si="22">IFERROR(T20/T22,0)</f>
+        <f t="shared" ref="T21:U21" si="26">IFERROR(T20/T22,0)</f>
+        <v>-0.89063560280479526</v>
+      </c>
+      <c r="U21" s="68">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="U21" s="68">
-        <f t="shared" si="22"/>
+      <c r="V21" s="69">
+        <f t="shared" ref="V21:W21" si="27">IFERROR(V20/V22,0)</f>
         <v>0</v>
       </c>
-      <c r="V21" s="69">
-        <f t="shared" ref="V21:W21" si="23">IFERROR(V20/V22,0)</f>
-        <v>0</v>
-      </c>
       <c r="W21" s="68">
-        <f t="shared" si="23"/>
+        <f t="shared" si="27"/>
         <v>-0.53678270774145398</v>
       </c>
-      <c r="X21" s="70"/>
+      <c r="X21" s="68">
+        <f t="shared" ref="X21" si="28">IFERROR(X20/X22,0)</f>
+        <v>-0.64818477186043222</v>
+      </c>
       <c r="Y21" s="70"/>
     </row>
     <row r="22" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -10819,13 +10874,17 @@
       <c r="S22" s="24">
         <v>68.597999999999999</v>
       </c>
-      <c r="T22" s="57"/>
+      <c r="T22" s="57">
+        <v>70.736000000000004</v>
+      </c>
       <c r="U22" s="57"/>
       <c r="V22" s="23"/>
       <c r="W22" s="57">
         <v>76.381</v>
       </c>
-      <c r="X22" s="57"/>
+      <c r="X22" s="57">
+        <v>113.264</v>
+      </c>
       <c r="Y22" s="57"/>
     </row>
     <row r="23" spans="1:25" s="42" customFormat="1" x14ac:dyDescent="0.15">
@@ -10863,46 +10922,49 @@
       <c r="L24" s="45"/>
       <c r="M24" s="45"/>
       <c r="N24" s="35">
-        <f t="shared" ref="B24:Q24" si="24">IFERROR(N10/N8,0)</f>
+        <f t="shared" ref="N24:Q24" si="29">IFERROR(N10/N8,0)</f>
         <v>0.7857142857142857</v>
       </c>
       <c r="O24" s="34">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="P24" s="34">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>0.80952380952380953</v>
       </c>
       <c r="Q24" s="34">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="R24" s="35">
-        <f t="shared" ref="R24:S24" si="25">IFERROR(R10/R8,0)</f>
+        <f t="shared" ref="R24:S24" si="30">IFERROR(R10/R8,0)</f>
         <v>0.8571428571428571</v>
       </c>
       <c r="S24" s="34">
-        <f t="shared" si="25"/>
+        <f t="shared" si="30"/>
         <v>0.84848484848484851</v>
       </c>
       <c r="T24" s="34">
-        <f t="shared" ref="T24:V24" si="26">IFERROR(T10/T8,0)</f>
+        <f t="shared" ref="T24:V24" si="31">IFERROR(T10/T8,0)</f>
         <v>0.86842105263157898</v>
       </c>
       <c r="U24" s="34">
-        <f t="shared" ref="U24" si="27">IFERROR(U10/U8,0)</f>
+        <f t="shared" ref="U24" si="32">IFERROR(U10/U8,0)</f>
         <v>0.86652864044168387</v>
       </c>
       <c r="V24" s="35">
-        <f t="shared" si="26"/>
+        <f t="shared" si="31"/>
         <v>0.87422965664696262</v>
       </c>
       <c r="W24" s="34">
-        <f t="shared" ref="W24" si="28">IFERROR(W10/W8,0)</f>
+        <f t="shared" ref="W24:X24" si="33">IFERROR(W10/W8,0)</f>
         <v>0.86538461538461542</v>
       </c>
-      <c r="X24" s="34"/>
+      <c r="X24" s="34">
+        <f t="shared" si="33"/>
+        <v>0.87571513453866401</v>
+      </c>
       <c r="Y24" s="34"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.15">
@@ -10922,46 +10984,49 @@
       <c r="L25" s="45"/>
       <c r="M25" s="45"/>
       <c r="N25" s="37">
-        <f t="shared" ref="B25:Q25" si="29">IFERROR(N15/N8,0)</f>
+        <f t="shared" ref="N25:Q25" si="34">IFERROR(N15/N8,0)</f>
         <v>-0.8571428571428571</v>
       </c>
       <c r="O25" s="36">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>-0.88888888888888884</v>
       </c>
       <c r="P25" s="36">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>-0.5714285714285714</v>
       </c>
       <c r="Q25" s="36">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>-0.54166666666666663</v>
       </c>
       <c r="R25" s="37">
-        <f t="shared" ref="R25:S25" si="30">IFERROR(R15/R8,0)</f>
+        <f t="shared" ref="R25:S25" si="35">IFERROR(R15/R8,0)</f>
         <v>-0.5357142857142857</v>
       </c>
       <c r="S25" s="36">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>-0.48484848484848486</v>
       </c>
       <c r="T25" s="36">
-        <f t="shared" ref="T25:V25" si="31">IFERROR(T15/T8,0)</f>
+        <f t="shared" ref="T25:V25" si="36">IFERROR(T15/T8,0)</f>
         <v>-1.6578947368421053</v>
       </c>
       <c r="U25" s="36">
-        <f t="shared" ref="U25" si="32">IFERROR(U15/U8,0)</f>
+        <f t="shared" ref="U25" si="37">IFERROR(U15/U8,0)</f>
         <v>-0.5827467218771567</v>
       </c>
       <c r="V25" s="37">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>-0.59309101580513968</v>
       </c>
       <c r="W25" s="36">
-        <f t="shared" ref="W25" si="33">IFERROR(W15/W8,0)</f>
+        <f t="shared" ref="W25:X25" si="38">IFERROR(W15/W8,0)</f>
         <v>-0.65384615384615385</v>
       </c>
-      <c r="X25" s="36"/>
+      <c r="X25" s="36">
+        <f t="shared" si="38"/>
+        <v>-1.042627960275019</v>
+      </c>
       <c r="Y25" s="36"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.15">
@@ -10981,46 +11046,49 @@
       <c r="L26" s="45"/>
       <c r="M26" s="45"/>
       <c r="N26" s="37">
-        <f t="shared" ref="B26:Q26" si="34">IFERROR(N18/N17,0)</f>
+        <f t="shared" ref="N26:Q26" si="39">IFERROR(N18/N17,0)</f>
         <v>0</v>
       </c>
       <c r="O26" s="36">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="P26" s="36">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="Q26" s="36">
-        <f t="shared" si="34"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="R26" s="37">
-        <f t="shared" ref="R26:S26" si="35">IFERROR(R18/R17,0)</f>
+        <f t="shared" ref="R26:S26" si="40">IFERROR(R18/R17,0)</f>
         <v>0</v>
       </c>
       <c r="S26" s="36">
-        <f t="shared" si="35"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="T26" s="36">
-        <f t="shared" ref="T26:V26" si="36">IFERROR(T18/T17,0)</f>
+        <f t="shared" ref="T26:V26" si="41">IFERROR(T18/T17,0)</f>
         <v>0</v>
       </c>
       <c r="U26" s="36">
-        <f t="shared" ref="U26" si="37">IFERROR(U18/U17,0)</f>
+        <f t="shared" ref="U26" si="42">IFERROR(U18/U17,0)</f>
         <v>0</v>
       </c>
       <c r="V26" s="37">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="W26" s="36">
-        <f t="shared" ref="W26" si="38">IFERROR(W18/W17,0)</f>
+        <f t="shared" ref="W26:X26" si="43">IFERROR(W18/W17,0)</f>
         <v>0</v>
       </c>
-      <c r="X26" s="36"/>
+      <c r="X26" s="36">
+        <f t="shared" si="43"/>
+        <v>-1.3809102960671676E-2</v>
+      </c>
       <c r="Y26" s="36"/>
     </row>
     <row r="27" spans="1:25" s="42" customFormat="1" x14ac:dyDescent="0.15">
@@ -11062,34 +11130,37 @@
       <c r="P28" s="30"/>
       <c r="Q28" s="30"/>
       <c r="R28" s="31">
-        <f t="shared" ref="F28:X28" si="39">IFERROR((R8/N8)-1,0)</f>
+        <f t="shared" ref="R28:X28" si="44">IFERROR((R8/N8)-1,0)</f>
         <v>1</v>
       </c>
       <c r="S28" s="30">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>0.83333333333333326</v>
       </c>
       <c r="T28" s="30">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>0.80952380952380953</v>
       </c>
       <c r="U28" s="30">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>0.81125000000000003</v>
       </c>
       <c r="V28" s="31">
-        <f t="shared" ref="V28" si="40">IFERROR((V8/R8)-1,0)</f>
+        <f t="shared" ref="V28" si="45">IFERROR((V8/R8)-1,0)</f>
         <v>0.70378571428571446</v>
       </c>
       <c r="W28" s="30">
-        <f t="shared" si="39"/>
+        <f t="shared" si="44"/>
         <v>0.57575757575757569</v>
       </c>
       <c r="X28" s="30">
-        <f>IFERROR((X8/T8)-1,0)</f>
-        <v>0.39473684210526305</v>
-      </c>
-      <c r="Y28" s="30"/>
+        <f t="shared" si="44"/>
+        <v>0.55013157894736842</v>
+      </c>
+      <c r="Y28" s="30">
+        <f>IFERROR((Y8/U8)-1,0)</f>
+        <v>0.42627099148838288</v>
+      </c>
     </row>
     <row r="29" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A29" s="6" t="s">
@@ -11112,30 +11183,33 @@
       <c r="P29" s="32"/>
       <c r="Q29" s="32"/>
       <c r="R29" s="33">
-        <f t="shared" ref="F29:W32" si="41">R11/N11-1</f>
+        <f t="shared" ref="R29:X32" si="46">R11/N11-1</f>
         <v>0.44444444444444442</v>
       </c>
       <c r="S29" s="32">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>0.23076923076923084</v>
       </c>
       <c r="T29" s="32">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>3</v>
       </c>
       <c r="U29" s="32">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>0.81818181818181812</v>
       </c>
       <c r="V29" s="33">
-        <f t="shared" ref="V29:V31" si="42">V11/R11-1</f>
+        <f t="shared" ref="V29:V31" si="47">V11/R11-1</f>
         <v>0.69230769230769229</v>
       </c>
       <c r="W29" s="32">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>0.625</v>
       </c>
-      <c r="X29" s="32"/>
+      <c r="X29" s="32">
+        <f t="shared" si="46"/>
+        <v>-0.17500000000000004</v>
+      </c>
       <c r="Y29" s="32"/>
     </row>
     <row r="30" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.15">
@@ -11159,30 +11233,33 @@
       <c r="P30" s="32"/>
       <c r="Q30" s="32"/>
       <c r="R30" s="33">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>0.89999999999999991</v>
       </c>
       <c r="S30" s="32">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>0.53846153846153855</v>
       </c>
       <c r="T30" s="32">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>1.7692307692307692</v>
       </c>
       <c r="U30" s="32">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>0.9375</v>
       </c>
       <c r="V30" s="33">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>0.89473684210526305</v>
       </c>
       <c r="W30" s="32">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>0.95</v>
       </c>
-      <c r="X30" s="32"/>
+      <c r="X30" s="32">
+        <f t="shared" si="46"/>
+        <v>0.33333333333333326</v>
+      </c>
       <c r="Y30" s="32"/>
     </row>
     <row r="31" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.15">
@@ -11206,30 +11283,33 @@
       <c r="P31" s="32"/>
       <c r="Q31" s="32"/>
       <c r="R31" s="33">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>0.75</v>
       </c>
       <c r="S31" s="32">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>0.60000000000000009</v>
       </c>
       <c r="T31" s="32">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>2.3333333333333335</v>
       </c>
       <c r="U31" s="32">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="V31" s="33">
-        <f t="shared" si="42"/>
+        <f t="shared" si="47"/>
         <v>0.71428571428571419</v>
       </c>
       <c r="W31" s="32">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>0.75</v>
       </c>
-      <c r="X31" s="32"/>
+      <c r="X31" s="32">
+        <f t="shared" si="46"/>
+        <v>0.60000000000000009</v>
+      </c>
       <c r="Y31" s="32"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.15">
@@ -11257,15 +11337,15 @@
         <v>0.69565217391304346</v>
       </c>
       <c r="S32" s="34">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>0.41935483870967749</v>
       </c>
       <c r="T32" s="34">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>2.3103448275862069</v>
       </c>
       <c r="U32" s="34">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>0.90909090909090917</v>
       </c>
       <c r="V32" s="35">
@@ -11273,10 +11353,13 @@
         <v>0.79487179487179493</v>
       </c>
       <c r="W32" s="34">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>0.79545454545454541</v>
       </c>
-      <c r="X32" s="34"/>
+      <c r="X32" s="34">
+        <f t="shared" si="46"/>
+        <v>0.17708333333333326</v>
+      </c>
       <c r="Y32" s="34"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.15">
@@ -11315,46 +11398,49 @@
       <c r="L34" s="45"/>
       <c r="M34" s="45"/>
       <c r="N34" s="26">
-        <f t="shared" ref="M34:P34" si="43">N35-N36</f>
+        <f t="shared" ref="N34:P34" si="48">N35-N36</f>
         <v>0</v>
       </c>
       <c r="O34" s="25">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="P34" s="25">
-        <f t="shared" si="43"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="Q34" s="25">
-        <f t="shared" ref="Q34:S34" si="44">Q35-Q36</f>
+        <f t="shared" ref="Q34:S34" si="49">Q35-Q36</f>
         <v>0</v>
       </c>
       <c r="R34" s="26">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="S34" s="25">
-        <f t="shared" si="44"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="T34" s="25">
-        <f t="shared" ref="T34" si="45">T35-T36</f>
+        <f t="shared" ref="T34" si="50">T35-T36</f>
         <v>0</v>
       </c>
       <c r="U34" s="25">
-        <f t="shared" ref="U34" si="46">U35-U36</f>
+        <f t="shared" ref="U34" si="51">U35-U36</f>
         <v>148</v>
       </c>
       <c r="V34" s="26">
-        <f t="shared" ref="V34:W34" si="47">V35-V36</f>
+        <f t="shared" ref="V34:X34" si="52">V35-V36</f>
         <v>0</v>
       </c>
       <c r="W34" s="25">
-        <f t="shared" si="47"/>
+        <f t="shared" si="52"/>
         <v>123</v>
       </c>
-      <c r="X34" s="50"/>
+      <c r="X34" s="25">
+        <f t="shared" si="52"/>
+        <v>70</v>
+      </c>
       <c r="Y34" s="50"/>
     </row>
     <row r="35" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -11389,7 +11475,10 @@
         <f>450+6</f>
         <v>456</v>
       </c>
-      <c r="X35" s="24"/>
+      <c r="X35" s="24">
+        <f>297+126</f>
+        <v>423</v>
+      </c>
       <c r="Y35" s="24"/>
     </row>
     <row r="36" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -11423,7 +11512,10 @@
         <f>3+330</f>
         <v>333</v>
       </c>
-      <c r="X36" s="24"/>
+      <c r="X36" s="24">
+        <f>12+341</f>
+        <v>353</v>
+      </c>
       <c r="Y36" s="24"/>
     </row>
     <row r="37" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -11482,7 +11574,9 @@
       <c r="W38" s="24">
         <v>0</v>
       </c>
-      <c r="X38" s="24"/>
+      <c r="X38" s="24">
+        <v>0</v>
+      </c>
       <c r="Y38" s="24"/>
     </row>
     <row r="39" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -11515,7 +11609,9 @@
       <c r="W39" s="24">
         <v>669</v>
       </c>
-      <c r="X39" s="24"/>
+      <c r="X39" s="24">
+        <v>674</v>
+      </c>
       <c r="Y39" s="24"/>
     </row>
     <row r="40" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -11550,7 +11646,9 @@
         <f>590+251</f>
         <v>841</v>
       </c>
-      <c r="X40" s="24"/>
+      <c r="X40" s="24">
+        <v>646</v>
+      </c>
       <c r="Y40" s="24"/>
     </row>
     <row r="41" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -11596,46 +11694,49 @@
       <c r="L42" s="45"/>
       <c r="M42" s="45"/>
       <c r="N42" s="28">
-        <f t="shared" ref="I42:O42" si="48">N39-N35-N38</f>
+        <f t="shared" ref="N42:O42" si="53">N39-N35-N38</f>
         <v>0</v>
       </c>
       <c r="O42" s="27">
-        <f t="shared" si="48"/>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="P42" s="27">
-        <f t="shared" ref="P42:V42" si="49">P39-P35-P38</f>
+        <f t="shared" ref="P42:V42" si="54">P39-P35-P38</f>
         <v>0</v>
       </c>
       <c r="Q42" s="27">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="R42" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="S42" s="27">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="T42" s="27">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="U42" s="27">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>71</v>
       </c>
       <c r="V42" s="28">
-        <f t="shared" si="49"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="W42" s="27">
-        <f t="shared" ref="W42" si="50">W39-W35-W38</f>
+        <f t="shared" ref="W42:X42" si="55">W39-W35-W38</f>
         <v>213</v>
       </c>
-      <c r="X42" s="24"/>
+      <c r="X42" s="27">
+        <f t="shared" si="55"/>
+        <v>251</v>
+      </c>
       <c r="Y42" s="24"/>
     </row>
     <row r="43" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -11655,27 +11756,27 @@
       <c r="L43" s="45"/>
       <c r="M43" s="45"/>
       <c r="N43" s="28">
-        <f t="shared" ref="M43:P43" si="51">N39-N40</f>
+        <f t="shared" ref="N43:P43" si="56">N39-N40</f>
         <v>0</v>
       </c>
       <c r="O43" s="27">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="P43" s="27">
-        <f t="shared" si="51"/>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="Q43" s="27">
-        <f t="shared" ref="Q43:S43" si="52">Q39-Q40</f>
+        <f t="shared" ref="Q43:S43" si="57">Q39-Q40</f>
         <v>0</v>
       </c>
       <c r="R43" s="28">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="S43" s="27">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="T43" s="27">
@@ -11687,14 +11788,17 @@
         <v>-145</v>
       </c>
       <c r="V43" s="28">
-        <f t="shared" ref="V43" si="53">V39-V40</f>
+        <f t="shared" ref="V43" si="58">V39-V40</f>
         <v>0</v>
       </c>
       <c r="W43" s="27">
         <f>W39-W40</f>
         <v>-172</v>
       </c>
-      <c r="X43" s="24"/>
+      <c r="X43" s="27">
+        <f>X39-X40</f>
+        <v>28</v>
+      </c>
       <c r="Y43" s="24"/>
     </row>
     <row r="44" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -11740,46 +11844,49 @@
       <c r="L45" s="45"/>
       <c r="M45" s="45"/>
       <c r="N45" s="26">
-        <f t="shared" ref="M45:U45" si="54">SUM(K20:N20)</f>
+        <f t="shared" ref="N45:U45" si="59">SUM(K20:N20)</f>
         <v>-12</v>
       </c>
       <c r="O45" s="25">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>-28</v>
       </c>
       <c r="P45" s="25">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>-40</v>
       </c>
       <c r="Q45" s="25">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>-53</v>
       </c>
       <c r="R45" s="26">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>-56</v>
       </c>
       <c r="S45" s="25">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>-56</v>
       </c>
       <c r="T45" s="25">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>-107</v>
       </c>
       <c r="U45" s="25">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>-119.33199999999999</v>
       </c>
       <c r="V45" s="26">
-        <f t="shared" ref="V45" si="55">SUM(S20:V20)</f>
+        <f t="shared" ref="V45" si="60">SUM(S20:V20)</f>
         <v>-138.62599999999998</v>
       </c>
       <c r="W45" s="25">
         <f>SUM(T20:W20)</f>
         <v>-163.62599999999998</v>
       </c>
-      <c r="X45" s="50"/>
+      <c r="X45" s="25">
+        <f>SUM(U20:X20)</f>
+        <v>-174.042</v>
+      </c>
       <c r="Y45" s="50"/>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.15">
@@ -11799,44 +11906,48 @@
       <c r="L46" s="45"/>
       <c r="M46" s="45"/>
       <c r="N46" s="35" t="e">
-        <f t="shared" ref="I46:O46" si="56">N45/N43</f>
+        <f t="shared" ref="N46:O46" si="61">N45/N43</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O46" s="34" t="e">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P46" s="34" t="e">
-        <f t="shared" ref="P46:V46" si="57">P45/P43</f>
+        <f t="shared" ref="P46:V46" si="62">P45/P43</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q46" s="34" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R46" s="35" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S46" s="34" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T46" s="34" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U46" s="34">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v>0.82297931034482752</v>
       </c>
       <c r="V46" s="35" t="e">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W46" s="34">
-        <f t="shared" ref="W46" si="58">W45/W43</f>
+        <f t="shared" ref="W46:X46" si="63">W45/W43</f>
         <v>0.951313953488372</v>
+      </c>
+      <c r="X46" s="34">
+        <f t="shared" si="63"/>
+        <v>-6.2157857142857145</v>
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.15">
@@ -11856,44 +11967,48 @@
       <c r="L47" s="45"/>
       <c r="M47" s="45"/>
       <c r="N47" s="35" t="e">
-        <f t="shared" ref="I47:O47" si="59">N45/N39</f>
+        <f t="shared" ref="N47:O47" si="64">N45/N39</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O47" s="34" t="e">
-        <f t="shared" si="59"/>
+        <f t="shared" si="64"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P47" s="34" t="e">
-        <f t="shared" ref="P47:V47" si="60">P45/P39</f>
+        <f t="shared" ref="P47:V47" si="65">P45/P39</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q47" s="34" t="e">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R47" s="35" t="e">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S47" s="34" t="e">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T47" s="34" t="e">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U47" s="34">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>-0.2827772511848341</v>
       </c>
       <c r="V47" s="35" t="e">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W47" s="34">
-        <f t="shared" ref="W47" si="61">W45/W39</f>
+        <f t="shared" ref="W47:X47" si="66">W45/W39</f>
         <v>-0.24458295964125557</v>
+      </c>
+      <c r="X47" s="34">
+        <f t="shared" si="66"/>
+        <v>-0.25822255192878341</v>
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.15">
@@ -11913,44 +12028,48 @@
       <c r="L48" s="45"/>
       <c r="M48" s="45"/>
       <c r="N48" s="35" t="e">
-        <f t="shared" ref="I48:O48" si="62">N45/(N43-N38)</f>
+        <f t="shared" ref="N48:O48" si="67">N45/(N43-N38)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O48" s="34" t="e">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P48" s="34" t="e">
-        <f t="shared" ref="P48:V48" si="63">P45/(P43-P38)</f>
+        <f t="shared" ref="P48:V48" si="68">P45/(P43-P38)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q48" s="34" t="e">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R48" s="35" t="e">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S48" s="34" t="e">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T48" s="34" t="e">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U48" s="34">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v>0.82297931034482752</v>
       </c>
       <c r="V48" s="35" t="e">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W48" s="34">
-        <f t="shared" ref="W48" si="64">W45/(W43-W38)</f>
+        <f t="shared" ref="W48:X48" si="69">W45/(W43-W38)</f>
         <v>0.951313953488372</v>
+      </c>
+      <c r="X48" s="34">
+        <f t="shared" si="69"/>
+        <v>-6.2157857142857145</v>
       </c>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.15">
@@ -11970,44 +12089,48 @@
       <c r="L49" s="45"/>
       <c r="M49" s="45"/>
       <c r="N49" s="35" t="e">
-        <f t="shared" ref="I49:O49" si="65">N45/N42</f>
+        <f t="shared" ref="N49:O49" si="70">N45/N42</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O49" s="34" t="e">
-        <f t="shared" si="65"/>
+        <f t="shared" si="70"/>
         <v>#DIV/0!</v>
       </c>
       <c r="P49" s="34" t="e">
-        <f t="shared" ref="P49:V49" si="66">P45/P42</f>
+        <f t="shared" ref="P49:V49" si="71">P45/P42</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Q49" s="34" t="e">
-        <f t="shared" si="66"/>
+        <f t="shared" si="71"/>
         <v>#DIV/0!</v>
       </c>
       <c r="R49" s="35" t="e">
-        <f t="shared" si="66"/>
+        <f t="shared" si="71"/>
         <v>#DIV/0!</v>
       </c>
       <c r="S49" s="34" t="e">
-        <f t="shared" si="66"/>
+        <f t="shared" si="71"/>
         <v>#DIV/0!</v>
       </c>
       <c r="T49" s="34" t="e">
-        <f t="shared" si="66"/>
+        <f t="shared" si="71"/>
         <v>#DIV/0!</v>
       </c>
       <c r="U49" s="34">
-        <f t="shared" si="66"/>
+        <f t="shared" si="71"/>
         <v>-1.6807323943661971</v>
       </c>
       <c r="V49" s="35" t="e">
-        <f t="shared" si="66"/>
+        <f t="shared" si="71"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W49" s="34">
-        <f t="shared" ref="W49" si="67">W45/W42</f>
+        <f t="shared" ref="W49:X49" si="72">W45/W42</f>
         <v>-0.76819718309859142</v>
+      </c>
+      <c r="X49" s="34">
+        <f t="shared" si="72"/>
+        <v>-0.69339442231075699</v>
       </c>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.15">
@@ -12045,30 +12168,33 @@
       <c r="P51" s="34"/>
       <c r="Q51" s="34"/>
       <c r="R51" s="35">
-        <f>R3/N3-1</f>
+        <f t="shared" ref="R51:X51" si="73">R3/N3-1</f>
         <v>1</v>
       </c>
       <c r="S51" s="34">
-        <f>S3/O3-1</f>
+        <f t="shared" si="73"/>
         <v>0.83333333333333326</v>
       </c>
       <c r="T51" s="34">
-        <f>T3/P3-1</f>
+        <f t="shared" si="73"/>
         <v>0.80952380952380953</v>
       </c>
       <c r="U51" s="34">
-        <f>U3/Q3-1</f>
+        <f t="shared" si="73"/>
         <v>0.81125000000000003</v>
       </c>
       <c r="V51" s="35">
-        <f>V3/R3-1</f>
+        <f t="shared" si="73"/>
         <v>0.70378571428571446</v>
       </c>
       <c r="W51" s="34">
-        <f>W3/S3-1</f>
+        <f t="shared" si="73"/>
         <v>0.57575757575757569</v>
       </c>
-      <c r="X51" s="34"/>
+      <c r="X51" s="34">
+        <f t="shared" si="73"/>
+        <v>0.55013157894736842</v>
+      </c>
       <c r="Y51" s="34"/>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.15">
